--- a/biology/Botanique/Parc_Astrid_(Anderlecht)/Parc_Astrid_(Anderlecht).xlsx
+++ b/biology/Botanique/Parc_Astrid_(Anderlecht)/Parc_Astrid_(Anderlecht).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Astrid est un parc public bruxellois situé dans la commune d'Anderlecht.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le parc Astrid prend son origine de la propriété des époux Edmond et Cécile Ruelens-Lefebvre qui firent construire leur maison de campagne en 1873 sur une parcelle de 2,7 ha. Mr Ruelens était propriétaire d'une importante galerie de tableaux flamands du 17e siècle. Il décède sans postérité en 1883 et la propriété est rachetée à sa veuve en 1906 par la commune d'Anderlecht. En 1907, le conseil communal adopta le projet d'un grand jardin public. Entre 1908 et 1928, la commune racheta une série de parcelles voisines pour atteindre un total de 15 ha. L'ancienne maison de campagne des époux  Ruelens-Lefebvre fut démolie en 1986. La grande collection des tableaux Ruelens fut léguée par sa veuve à ses propres neveux et nièces de Valenciennes. Le parc fut par la suite  nommé "Parc Astrid".
 1911 : inauguration officielle du Parc d'Anderlecht (ou parc du Meir).
@@ -549,7 +563,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, quelques-uns des nombreux arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
 </t>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
